--- a/pred_ohlcv/54_21/2020-01-20 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TMTG ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-2516026.216599999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2675016.2916</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2625325.0656</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2732444.5166</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2741574.4901</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2597541.5901</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2575275.0161</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2481976.0531</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2484956.9051</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2441288.2541</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2360245.179099999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2244043.493099999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2225253.524099999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2266037.801099999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2157888.735099999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2186937.241099999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2257444.143099999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2115638.001099999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2228511.596099999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2090462.592099999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2289374.956099999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2281631.238099999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2232699.20277855</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2234387.91877855</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2691377.054078551</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2736947.037078551</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2706795.554078551</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2771117.266078551</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2755163.820078551</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2742777.568078551</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2779835.677078551</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2777811.703078551</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2645891.633078551</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2339662.588078551</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2284329.678078549</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2316998.07407855</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2318028.69057855</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2364336.00167855</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2308014.96667855</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2298875.53767855</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2337088.514678549</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2393092.991678549</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2392180.63467855</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2364564.91267855</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2321304.33167855</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2265371.65867855</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2180223.15567855</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2157696.674399999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-860781.3212999989</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-994510.974299999</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1335888.129299999</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1203288.160299999</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-962980.748299999</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-879208.6972999991</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-537665.209020301</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>947031.2059420384</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>927552.5039420384</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>851328.1059420384</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>852186.0209999534</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1478481.536016467</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1478481.536016467</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1366911.588816467</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TMTG ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-2864780.0166</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2461998.116599999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2320573.924599999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2235086.013599999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2373116.026599999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2550591.399599999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2632770.113599999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2516026.216599999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2675016.2916</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2625325.0656</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2732444.5166</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2741574.4901</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2597541.5901</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2575275.0161</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2481976.0531</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2484956.9051</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2441288.2541</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2360245.179099999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2244043.493099999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2225253.524099999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2266037.801099999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2157888.735099999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2186937.241099999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2257444.143099999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2115638.001099999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2228511.596099999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2090462.592099999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2289374.956099999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2281631.238099999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2232699.20277855</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2234387.91877855</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2249409.434778551</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2327394.22107855</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2504356.80307855</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2459043.33207855</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2448644.085078551</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2517314.963078551</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2371531.728078551</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2342150.899078551</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2247537.313078551</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2506239.215078551</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2363914.934078551</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2488303.990078551</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2434001.139078551</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2321581.318078551</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2691377.054078551</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2736263.774078551</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2771670.177078551</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2740751.567078551</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2678808.653078551</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2547630.417078551</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2736947.037078551</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2706795.554078551</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2790491.048078551</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2739196.772078551</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2779835.677078551</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2179166.659078551</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2147052.47307855</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2214616.00407855</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2194522.32107855</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2156497.88307855</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2011308.49707855</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2284329.678078549</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2316998.07407855</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2318028.69057855</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2364336.00167855</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2308014.96667855</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2298875.53767855</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2337088.514678549</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2393092.991678549</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2392180.63467855</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2364564.91267855</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2321304.33167855</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2265371.65867855</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2242277.84867855</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2180223.15567855</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2256998.22467855</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2238127.85667855</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2317350.83067855</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2157696.674399999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1169146.547099999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1295194.051099999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1316119.104099999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1453500.137099999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1625126.286899999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1653801.320899999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1203288.160299999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-962980.748299999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>363595.1848036601</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>213805.6068036601</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>319008.5456420387</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>947031.2059420384</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>927552.5039420384</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>851328.1059420384</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>852186.0209999534</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>417925.5689999533</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>409925.5689999533</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>488582.9229999533</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>411251.2089999532</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>508655.8159999533</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>586441.9039999532</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>508582.6749999532</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>521141.5119999532</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>595031.2219999532</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>601917.3849999531</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>465763.2319999531</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>274680.3569999531</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>571691.461999953</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>485997.733999953</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>792696.6669999531</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>640653.353999953</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>862776.0200582906</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>843558.3450582905</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>782572.5610582905</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>677992.0550582905</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>548301.7563582904</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>484512.1833582905</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>466465.6453582905</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>328021.5313582905</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>158435.4103582904</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>153372.5983582904</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-163954.9440164673</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-163954.9440164673</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1478481.536016467</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1366911.588816467</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1393697.998816467</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1223449.382816467</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1223449.382816467</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1943933.089916467</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2064096.853116467</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
